--- a/temp/SYWG trd.xlsx
+++ b/temp/SYWG trd.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="456">
   <si>
     <t>证券代码</t>
   </si>
@@ -32,11 +32,6 @@
     <t>证券简称</t>
   </si>
   <si>
-    <t>总市值2_x000D_
-[交易日期] 最新收盘日_x000D_
-[单位] 元</t>
-  </si>
-  <si>
     <t>850111.SI</t>
   </si>
   <si>
@@ -1397,29 +1392,16 @@
   </si>
   <si>
     <t>其他交运设备Ⅲ(申万)</t>
-  </si>
-  <si>
-    <t>数据来源：Wind资讯</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="###,###,###,##0.0000"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1460,27 +1442,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1797,2530 +1767,1843 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C230"/>
+  <dimension ref="A1:B228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C215" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="K228" sqref="K228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7">
-        <v>58040346052</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7">
-        <v>41192107475</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="6" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="7">
-        <v>43995954435</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="7">
-        <v>7336391387</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="6" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="7">
-        <v>46552739758</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="6" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="7">
-        <v>24053872938</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="6" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="7">
-        <v>199921284473</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="6" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="7">
-        <v>44394707132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="6" t="s">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="7">
-        <v>19395137951</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="6" t="s">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="7">
-        <v>71718682266</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="B12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="6" t="s">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="7">
-        <v>11110085135</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="B13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="6" t="s">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="7">
-        <v>330410705976</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="6" t="s">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="7">
-        <v>68456816117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="B15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="6" t="s">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="7">
-        <v>1189234749197</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="B16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="6" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="7">
-        <v>673622821637</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="B17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="6" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="7">
-        <v>75036519639</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+      <c r="B18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="6" t="s">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="7">
-        <v>88823697434</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+      <c r="B19" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="6" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="7">
-        <v>153105352142</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+      <c r="B20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="6" t="s">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="7">
-        <v>12448555500</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+      <c r="B21" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="6" t="s">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="7">
-        <v>597972661227</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+      <c r="B22" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="6" t="s">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="7">
-        <v>22569810701</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="B23" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="6" t="s">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="7">
-        <v>46707184266</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+      <c r="B24" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="6" t="s">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="7">
-        <v>114578695787</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+      <c r="B25" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="6" t="s">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="7">
-        <v>25827490613</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+      <c r="B26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="6" t="s">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="7">
-        <v>24556474188</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+      <c r="B27" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="6" t="s">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="7">
-        <v>71231990404</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+      <c r="B28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="6" t="s">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="7">
-        <v>28069276007</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+      <c r="B29" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="6" t="s">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="7">
-        <v>153894990311</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
+      <c r="B30" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="6" t="s">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="7">
-        <v>58827276734</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
+      <c r="B31" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="6" t="s">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="7">
-        <v>59643244005</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
+      <c r="B32" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="6" t="s">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="7">
-        <v>37147874680</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
+      <c r="B33" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="6" t="s">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="7">
-        <v>54680890696</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
+      <c r="B34" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="6" t="s">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="7">
-        <v>123959899437</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
+      <c r="B35" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="6" t="s">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="7">
-        <v>470317733887</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
+      <c r="B36" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B36" s="6" t="s">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="7">
-        <v>119304481647</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
+      <c r="B37" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B37" s="6" t="s">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C37" s="7">
-        <v>10588248776</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
+      <c r="B38" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B38" s="6" t="s">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C38" s="7">
-        <v>27903733232</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="s">
+      <c r="B39" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B39" s="6" t="s">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C39" s="7">
-        <v>15644340088</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="6" t="s">
+      <c r="B40" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B40" s="6" t="s">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C40" s="7">
-        <v>22366095102</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="s">
+      <c r="B41" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B41" s="6" t="s">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C41" s="7">
-        <v>165884548185</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
+      <c r="B42" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B42" s="6" t="s">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="7">
-        <v>19281714230</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="6" t="s">
+      <c r="B43" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B43" s="6" t="s">
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C43" s="7">
-        <v>42952994800</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="6" t="s">
+      <c r="B44" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B44" s="6" t="s">
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C44" s="7">
-        <v>111554747685</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="6" t="s">
+      <c r="B45" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B45" s="6" t="s">
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C45" s="7">
-        <v>35728041128</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="6" t="s">
+      <c r="B46" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B46" s="6" t="s">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="7">
-        <v>20670682649</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="6" t="s">
+      <c r="B47" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B47" s="6" t="s">
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C47" s="7">
-        <v>97965024490</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="6" t="s">
+      <c r="B48" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B48" s="6" t="s">
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C48" s="7">
-        <v>61199836691</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="6" t="s">
+      <c r="B49" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B49" s="6" t="s">
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C49" s="7">
-        <v>96076090016</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="6" t="s">
+      <c r="B50" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B50" s="6" t="s">
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C50" s="7">
-        <v>65274298144</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="6" t="s">
+      <c r="B51" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B51" s="6" t="s">
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C51" s="7">
-        <v>15068847356</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="6" t="s">
+      <c r="B52" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B52" s="6" t="s">
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C52" s="7">
-        <v>514545422965</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="6" t="s">
+      <c r="B53" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B53" s="6" t="s">
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C53" s="7">
-        <v>64279291484</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="6" t="s">
+      <c r="B54" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B54" s="6" t="s">
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C54" s="7">
-        <v>99139561998</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="6" t="s">
+      <c r="B55" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B55" s="6" t="s">
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C55" s="7">
-        <v>94255791765</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="6" t="s">
+      <c r="B56" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B56" s="6" t="s">
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C56" s="7">
-        <v>74392033213</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="6" t="s">
+      <c r="B57" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B57" s="6" t="s">
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C57" s="7">
-        <v>268192886912</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="6" t="s">
+      <c r="B58" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B58" s="6" t="s">
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C58" s="7">
-        <v>89451006392</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="6" t="s">
+      <c r="B59" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B59" s="6" t="s">
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C59" s="7">
-        <v>51598835750</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="6" t="s">
+      <c r="B60" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B60" s="6" t="s">
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C60" s="7">
-        <v>64558133611</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="6" t="s">
+      <c r="B61" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B61" s="6" t="s">
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C61" s="7">
-        <v>193833970530</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="6" t="s">
+      <c r="B62" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B62" s="6" t="s">
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C62" s="7">
-        <v>187177904783</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="6" t="s">
+      <c r="B63" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B63" s="6" t="s">
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C63" s="7">
-        <v>165652591234</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="6" t="s">
+      <c r="B64" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B64" s="6" t="s">
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C64" s="7">
-        <v>194663304729</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="6" t="s">
+      <c r="B65" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B65" s="6" t="s">
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C65" s="7">
-        <v>68609194171</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="6" t="s">
+      <c r="B66" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B66" s="6" t="s">
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C66" s="7">
-        <v>210454759728</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="6" t="s">
+      <c r="B67" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B67" s="6" t="s">
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C67" s="7">
-        <v>201260995531</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="6" t="s">
+      <c r="B68" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B68" s="6" t="s">
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C68" s="7">
-        <v>27013591036</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="6" t="s">
+      <c r="B69" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B69" s="6" t="s">
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C69" s="7">
-        <v>50695167948</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="6" t="s">
+      <c r="B70" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B70" s="6" t="s">
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C70" s="7">
-        <v>220539833674</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="6" t="s">
+      <c r="B71" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B71" s="6" t="s">
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C71" s="7">
-        <v>74908503606</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="6" t="s">
+      <c r="B72" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B72" s="6" t="s">
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C72" s="7">
-        <v>259710808000</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="6" t="s">
+      <c r="B73" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B73" s="6" t="s">
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C73" s="7">
-        <v>84478088245</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="6" t="s">
+      <c r="B74" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B74" s="6" t="s">
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C74" s="7">
-        <v>42372175421</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="6" t="s">
+      <c r="B75" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B75" s="6" t="s">
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C75" s="7">
-        <v>56479729889</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="6" t="s">
+      <c r="B76" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B76" s="6" t="s">
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C76" s="7">
-        <v>257912680702</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="6" t="s">
+      <c r="B77" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B77" s="6" t="s">
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C77" s="7">
-        <v>38343118552</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="6" t="s">
+      <c r="B78" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B78" s="6" t="s">
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C78" s="7">
-        <v>150630818818</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="6" t="s">
+      <c r="B79" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B79" s="6" t="s">
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C79" s="7">
-        <v>36706603222</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="6" t="s">
+      <c r="B80" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B80" s="6" t="s">
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C80" s="7">
-        <v>71927695697</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="6" t="s">
+      <c r="B81" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B81" s="6" t="s">
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C81" s="7">
-        <v>206876407255</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="6" t="s">
+      <c r="B82" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B82" s="6" t="s">
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C82" s="7">
-        <v>70088488092</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="6" t="s">
+      <c r="B83" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B83" s="6" t="s">
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C83" s="7">
-        <v>271394064609</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="6" t="s">
+      <c r="B84" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B84" s="6" t="s">
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C84" s="7">
-        <v>87542479663</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="6" t="s">
+      <c r="B85" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B85" s="6" t="s">
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C85" s="7">
-        <v>45654919509</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="6" t="s">
+      <c r="B86" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B86" s="6" t="s">
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C86" s="7">
-        <v>138739054534</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="6" t="s">
+      <c r="B87" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B87" s="6" t="s">
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C87" s="7">
-        <v>89681530019</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="6" t="s">
+      <c r="B88" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B88" s="6" t="s">
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C88" s="7">
-        <v>106633055049</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="6" t="s">
+      <c r="B89" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B89" s="6" t="s">
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C89" s="7">
-        <v>212900822553</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="6" t="s">
+      <c r="B90" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B90" s="6" t="s">
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C90" s="7">
-        <v>28127284145</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="6" t="s">
+      <c r="B91" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B91" s="6" t="s">
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C91" s="7">
-        <v>45976384342</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="6" t="s">
+      <c r="B92" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B92" s="6" t="s">
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C92" s="7">
-        <v>109255593601</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="6" t="s">
+      <c r="B93" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B93" s="6" t="s">
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C93" s="7">
-        <v>158504182339</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="6" t="s">
+      <c r="B94" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B94" s="6" t="s">
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C94" s="7">
-        <v>327672519035</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="6" t="s">
+      <c r="B95" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B95" s="6" t="s">
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C95" s="7">
-        <v>260226304916</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="6" t="s">
+      <c r="B96" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B96" s="6" t="s">
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C96" s="7">
-        <v>60797411347</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="6" t="s">
+      <c r="B97" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B97" s="6" t="s">
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C97" s="7">
-        <v>276443949724</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="6" t="s">
+      <c r="B98" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B98" s="6" t="s">
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C98" s="7">
-        <v>109413177935</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="6" t="s">
+      <c r="B99" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B99" s="6" t="s">
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C99" s="7">
-        <v>334066484376</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="6" t="s">
+      <c r="B100" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B100" s="6" t="s">
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C100" s="7">
-        <v>678188439099</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="6" t="s">
+      <c r="B101" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B101" s="6" t="s">
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C101" s="7">
-        <v>76554580174</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="6" t="s">
+      <c r="B102" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B102" s="6" t="s">
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C102" s="7">
-        <v>82935640426</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="6" t="s">
+      <c r="B103" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B103" s="6" t="s">
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C103" s="7">
-        <v>867385764363</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="6" t="s">
+      <c r="B104" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B104" s="6" t="s">
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C104" s="7">
-        <v>222532871686</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" s="6" t="s">
+      <c r="B105" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B105" s="6" t="s">
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C105" s="7">
-        <v>286935049861</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" s="6" t="s">
+      <c r="B106" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B106" s="6" t="s">
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C106" s="7">
-        <v>168770618136</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" s="6" t="s">
+      <c r="B107" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B107" s="6" t="s">
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C107" s="7">
-        <v>110886073334</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="6" t="s">
+      <c r="B108" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B108" s="6" t="s">
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="C108" s="7">
-        <v>430764184421</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" s="6" t="s">
+      <c r="B109" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B109" s="6" t="s">
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="C109" s="7">
-        <v>250444833566</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" s="6" t="s">
+      <c r="B110" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B110" s="6" t="s">
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C110" s="7">
-        <v>745400868010</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" s="6" t="s">
+      <c r="B111" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="B111" s="6" t="s">
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C111" s="7">
-        <v>91056784993</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" s="6" t="s">
+      <c r="B112" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B112" s="6" t="s">
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="C112" s="7">
-        <v>287890863848</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" s="6" t="s">
+      <c r="B113" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="B113" s="6" t="s">
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="C113" s="7">
-        <v>29778027569</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" s="6" t="s">
+      <c r="B114" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B114" s="6" t="s">
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="C114" s="7">
-        <v>219342587158</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="6" t="s">
+      <c r="B115" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B115" s="6" t="s">
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C115" s="7">
-        <v>157246223160</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" s="6" t="s">
+      <c r="B116" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B116" s="6" t="s">
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C116" s="7">
-        <v>126684888029</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" s="6" t="s">
+      <c r="B117" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="B117" s="6" t="s">
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C117" s="7">
-        <v>50884993852</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118" s="6" t="s">
+      <c r="B118" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B118" s="6" t="s">
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C118" s="7">
-        <v>849835425828</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" s="6" t="s">
+      <c r="B119" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B119" s="6" t="s">
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C119" s="7">
-        <v>85866991501</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" s="6" t="s">
+      <c r="B120" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B120" s="6" t="s">
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C120" s="7">
-        <v>35009690000</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" s="6" t="s">
+      <c r="B121" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="B121" s="6" t="s">
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="C121" s="7">
-        <v>34362027765</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" s="6" t="s">
+      <c r="B122" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B122" s="6" t="s">
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C122" s="7">
-        <v>60110094212</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A123" s="6" t="s">
+      <c r="B123" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="B123" s="6" t="s">
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="C123" s="7">
-        <v>19089104693</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A124" s="6" t="s">
+      <c r="B124" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="B124" s="6" t="s">
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="C124" s="7">
-        <v>100176256490</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" s="6" t="s">
+      <c r="B125" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="B125" s="6" t="s">
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="C125" s="7">
-        <v>155331427145</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" s="6" t="s">
+      <c r="B126" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="B126" s="6" t="s">
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C126" s="7">
-        <v>179630984630</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127" s="6" t="s">
+      <c r="B127" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B127" s="6" t="s">
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="C127" s="7">
-        <v>118297997167</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A128" s="6" t="s">
+      <c r="B128" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="B128" s="6" t="s">
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="C128" s="7">
-        <v>32744521831</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" s="6" t="s">
+      <c r="B129" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="B129" s="6" t="s">
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="C129" s="7">
-        <v>90190058150</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A130" s="6" t="s">
+      <c r="B130" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="B130" s="6" t="s">
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="C130" s="7">
-        <v>8266248458</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" s="6" t="s">
+      <c r="B131" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="B131" s="6" t="s">
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C131" s="7">
-        <v>31194618581</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132" s="6" t="s">
+      <c r="B132" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="B132" s="6" t="s">
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="C132" s="7">
-        <v>15019281101</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133" s="6" t="s">
+      <c r="B133" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="B133" s="6" t="s">
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C133" s="7">
-        <v>42435295935</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" s="6" t="s">
+      <c r="B134" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B134" s="6" t="s">
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C134" s="7">
-        <v>152413831660</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135" s="6" t="s">
+      <c r="B135" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="B135" s="6" t="s">
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="C135" s="7">
-        <v>32450450111</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136" s="6" t="s">
+      <c r="B136" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="B136" s="6" t="s">
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="C136" s="7">
-        <v>101598500690</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137" s="6" t="s">
+      <c r="B137" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="B137" s="6" t="s">
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="C137" s="7">
-        <v>37633867122</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138" s="6" t="s">
+      <c r="B138" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="B138" s="6" t="s">
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="C138" s="7">
-        <v>27171058186</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" s="6" t="s">
+      <c r="B139" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="B139" s="6" t="s">
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="C139" s="7">
-        <v>116208995644</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" s="6" t="s">
+      <c r="B140" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B140" s="6" t="s">
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="C140" s="7">
-        <v>160379908105</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" s="6" t="s">
+      <c r="B141" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="B141" s="6" t="s">
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="C141" s="7">
-        <v>266315527684</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A142" s="6" t="s">
+      <c r="B142" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="B142" s="6" t="s">
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="C142" s="7">
-        <v>137786642635</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" s="6" t="s">
+      <c r="B143" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="B143" s="6" t="s">
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="C143" s="7">
-        <v>112975451779</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144" s="6" t="s">
+      <c r="B144" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B144" s="6" t="s">
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C144" s="7">
-        <v>90574977293</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145" s="6" t="s">
+      <c r="B145" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="B145" s="6" t="s">
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="C145" s="7">
-        <v>50498148410</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" s="6" t="s">
+      <c r="B146" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="B146" s="6" t="s">
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="C146" s="7">
-        <v>7906214400</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A147" s="6" t="s">
+      <c r="B147" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="B147" s="6" t="s">
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="C147" s="7">
-        <v>314695384250</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A148" s="6" t="s">
+      <c r="B148" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="B148" s="6" t="s">
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="C148" s="7">
-        <v>586171424471</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A149" s="6" t="s">
+      <c r="B149" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="B149" s="6" t="s">
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="C149" s="7">
-        <v>909556080321</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A150" s="6" t="s">
+      <c r="B150" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="B150" s="6" t="s">
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="C150" s="7">
-        <v>514030466020</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A151" s="6" t="s">
+      <c r="B151" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="B151" s="6" t="s">
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="C151" s="7">
-        <v>284205093114</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152" s="6" t="s">
+      <c r="B152" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="B152" s="6" t="s">
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="C152" s="7">
-        <v>259272020343</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" s="6" t="s">
+      <c r="B153" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="B153" s="6" t="s">
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="C153" s="7">
-        <v>234484369710</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" s="6" t="s">
+      <c r="B154" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="B154" s="6" t="s">
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="C154" s="7">
-        <v>606561148804</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A155" s="6" t="s">
+      <c r="B155" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="B155" s="6" t="s">
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="C155" s="7">
-        <v>490079863391</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A156" s="6" t="s">
+      <c r="B156" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="B156" s="6" t="s">
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="C156" s="7">
-        <v>13417880118</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A157" s="6" t="s">
+      <c r="B157" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="B157" s="6" t="s">
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="C157" s="7">
-        <v>89095180842</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A158" s="6" t="s">
+      <c r="B158" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="B158" s="6" t="s">
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="C158" s="7">
-        <v>164356130429</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A159" s="6" t="s">
+      <c r="B159" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="B159" s="6" t="s">
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="C159" s="7">
-        <v>151586598605</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160" s="6" t="s">
+      <c r="B160" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="B160" s="6" t="s">
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="C160" s="7">
-        <v>130279811960</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A161" s="6" t="s">
+      <c r="B161" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="B161" s="6" t="s">
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="C161" s="7">
-        <v>336646437819</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A162" s="6" t="s">
+      <c r="B162" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="B162" s="6" t="s">
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="C162" s="7">
-        <v>366425137961</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A163" s="6" t="s">
+      <c r="B163" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="B163" s="6" t="s">
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="C163" s="7">
-        <v>63415162274</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A164" s="6" t="s">
+      <c r="B164" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="B164" s="6" t="s">
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="C164" s="7">
-        <v>198925747870</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A165" s="6" t="s">
+      <c r="B165" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="B165" s="6" t="s">
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="C165" s="7">
-        <v>323856477578</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" s="6" t="s">
+      <c r="B166" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="B166" s="6" t="s">
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="C166" s="7">
-        <v>92866538560</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A167" s="6" t="s">
+      <c r="B167" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="B167" s="6" t="s">
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="C167" s="7">
-        <v>191482855673</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A168" s="6" t="s">
+      <c r="B168" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="B168" s="6" t="s">
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="C168" s="7">
-        <v>122110522465</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A169" s="6" t="s">
+      <c r="B169" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="B169" s="6" t="s">
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="C169" s="7">
-        <v>251488136108</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A170" s="6" t="s">
+      <c r="B170" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="B170" s="6" t="s">
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="C170" s="7">
-        <v>2058153052663</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A171" s="6" t="s">
+      <c r="B171" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="B171" s="6" t="s">
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="C171" s="7">
-        <v>215272758086</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A172" s="6" t="s">
+      <c r="B172" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="B172" s="6" t="s">
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="C172" s="7">
-        <v>5205179137821</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A173" s="6" t="s">
+      <c r="B173" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="B173" s="6" t="s">
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="C173" s="7">
-        <v>213110491696</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A174" s="6" t="s">
+      <c r="B174" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="B174" s="6" t="s">
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="C174" s="7">
-        <v>1885486426214.99</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A175" s="6" t="s">
+      <c r="B175" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="B175" s="6" t="s">
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C175" s="7">
-        <v>1080864575233</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A176" s="6" t="s">
+      <c r="B176" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="B176" s="6" t="s">
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="C176" s="7">
-        <v>218749197254</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A177" s="6" t="s">
+      <c r="B177" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="B177" s="6" t="s">
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="C177" s="7">
-        <v>174915223138</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A178" s="6" t="s">
+      <c r="B178" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="B178" s="6" t="s">
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="C178" s="7">
-        <v>76876026028</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A179" s="6" t="s">
+      <c r="B179" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="B179" s="6" t="s">
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="C179" s="7">
-        <v>176292219761</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A180" s="6" t="s">
+      <c r="B180" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="B180" s="6" t="s">
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="C180" s="7">
-        <v>195665606148</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A181" s="6" t="s">
+      <c r="B181" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="B181" s="6" t="s">
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="C181" s="7">
-        <v>49569678911</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A182" s="6" t="s">
+      <c r="B182" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="B182" s="6" t="s">
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="C182" s="7">
-        <v>95654530841</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A183" s="6" t="s">
+      <c r="B183" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="B183" s="6" t="s">
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="C183" s="7">
-        <v>36479133629</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A184" s="6" t="s">
+      <c r="B184" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="B184" s="6" t="s">
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="C184" s="7">
-        <v>34219717876</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A185" s="6" t="s">
+      <c r="B185" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="B185" s="6" t="s">
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="C185" s="7">
-        <v>47437391541</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A186" s="6" t="s">
+      <c r="B186" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="B186" s="6" t="s">
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="C186" s="7">
-        <v>233261847658</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A187" s="6" t="s">
+      <c r="B187" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="B187" s="6" t="s">
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="C187" s="7">
-        <v>19082335139</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A188" s="6" t="s">
+      <c r="B188" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="B188" s="6" t="s">
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="C188" s="7"/>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A189" s="6" t="s">
+      <c r="B189" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="B189" s="6" t="s">
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="C189" s="7">
-        <v>110456633656</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A190" s="6" t="s">
+      <c r="B190" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="B190" s="6" t="s">
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="C190" s="7">
-        <v>275117303131</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A191" s="6" t="s">
+      <c r="B191" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="B191" s="6" t="s">
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="C191" s="7">
-        <v>293743944350</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A192" s="6" t="s">
+      <c r="B192" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="B192" s="6" t="s">
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="C192" s="7">
-        <v>55510975852</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A193" s="6" t="s">
+      <c r="B193" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="B193" s="6" t="s">
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="C193" s="7">
-        <v>221934130653</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A194" s="6" t="s">
+      <c r="B194" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="B194" s="6" t="s">
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="C194" s="7">
-        <v>600967613035</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A195" s="6" t="s">
+      <c r="B195" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="B195" s="6" t="s">
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="C195" s="7">
-        <v>886128552051</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A196" s="6" t="s">
+      <c r="B196" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="B196" s="6" t="s">
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="C196" s="7">
-        <v>270974225250</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A197" s="6" t="s">
+      <c r="B197" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="B197" s="6" t="s">
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="C197" s="7">
-        <v>484092840149</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A198" s="6" t="s">
+      <c r="B198" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="B198" s="6" t="s">
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="C198" s="7">
-        <v>341208664378</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A199" s="6" t="s">
+      <c r="B199" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B199" s="6" t="s">
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="C199" s="7">
-        <v>14900366687</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A200" s="6" t="s">
+      <c r="B200" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="B200" s="6" t="s">
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="C200" s="7">
-        <v>362344136514</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A201" s="6" t="s">
+      <c r="B201" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="B201" s="6" t="s">
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="C201" s="7">
-        <v>164233197907</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A202" s="6" t="s">
+      <c r="B202" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="B202" s="6" t="s">
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="C202" s="7">
-        <v>36127863870</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A203" s="6" t="s">
+      <c r="B203" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="B203" s="6" t="s">
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="C203" s="7">
-        <v>220761030270</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A204" s="6" t="s">
+      <c r="B204" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="B204" s="6" t="s">
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="C204" s="7">
-        <v>127411417111</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A205" s="6" t="s">
+      <c r="B205" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="B205" s="6" t="s">
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="C205" s="7">
-        <v>247910355456</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A206" s="6" t="s">
+      <c r="B206" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="B206" s="6" t="s">
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="C206" s="7">
-        <v>56814803268</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A207" s="6" t="s">
+      <c r="B207" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="B207" s="6" t="s">
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="C207" s="7">
-        <v>51367646553</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A208" s="6" t="s">
+      <c r="B208" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="B208" s="6" t="s">
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="C208" s="7">
-        <v>75060513094</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A209" s="6" t="s">
+      <c r="B209" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="B209" s="6" t="s">
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="C209" s="7">
-        <v>47580988860</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A210" s="6" t="s">
+      <c r="B210" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="B210" s="6" t="s">
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="C210" s="7">
-        <v>102599862146</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A211" s="6" t="s">
+      <c r="B211" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="B211" s="6" t="s">
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="C211" s="7">
-        <v>131722699406</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A212" s="6" t="s">
+      <c r="B212" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="B212" s="6" t="s">
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="C212" s="7">
-        <v>162718379270</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A213" s="6" t="s">
+      <c r="B213" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="B213" s="6" t="s">
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C213" s="7">
-        <v>136790067093</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A214" s="6" t="s">
+      <c r="B214" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="B214" s="6" t="s">
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="C214" s="7">
-        <v>104557825323</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A215" s="6" t="s">
+      <c r="B215" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="B215" s="6" t="s">
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="C215" s="7">
-        <v>96216155310</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A216" s="6" t="s">
+      <c r="B216" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="B216" s="6" t="s">
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="C216" s="7">
-        <v>86966288461</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A217" s="6" t="s">
+      <c r="B217" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="B217" s="6" t="s">
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="C217" s="7">
-        <v>243785743755</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A218" s="6" t="s">
+      <c r="B218" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="B218" s="6" t="s">
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="C218" s="7">
-        <v>39217800040</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A219" s="6" t="s">
+      <c r="B219" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="B219" s="6" t="s">
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="C219" s="7">
-        <v>120591566553</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A220" s="6" t="s">
+      <c r="B220" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="B220" s="6" t="s">
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="C220" s="7">
-        <v>21883689100</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A221" s="6" t="s">
+      <c r="B221" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="B221" s="6" t="s">
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="C221" s="7">
-        <v>125735718743</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A222" s="6" t="s">
+      <c r="B222" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="B222" s="6" t="s">
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="C222" s="7">
-        <v>169500261669</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A223" s="6" t="s">
+      <c r="B223" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="B223" s="6" t="s">
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="C223" s="7">
-        <v>85012612137</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A224" s="6" t="s">
+      <c r="B224" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="B224" s="6" t="s">
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="C224" s="7">
-        <v>211904897064</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A225" s="6" t="s">
+      <c r="B225" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="B225" s="6" t="s">
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="C225" s="7">
-        <v>141508922826</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A226" s="6" t="s">
+      <c r="B226" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="B226" s="6" t="s">
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="C226" s="7">
-        <v>335426803797</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A227" s="6" t="s">
+      <c r="B227" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="B227" s="6" t="s">
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="C227" s="7">
-        <v>67692388631</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A228" s="6" t="s">
+      <c r="B228" s="3" t="s">
         <v>455</v>
-      </c>
-      <c r="B228" s="6" t="s">
-        <v>456</v>
-      </c>
-      <c r="C228" s="7">
-        <v>44356219533</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A230" s="3" t="s">
-        <v>457</v>
       </c>
     </row>
   </sheetData>
